--- a/biology/Médecine/Ernest_Masoin/Ernest_Masoin.xlsx
+++ b/biology/Médecine/Ernest_Masoin/Ernest_Masoin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest Nicolas Masoin, est un médecin et professeur à l'Université catholique de Louvain, né à Virton (Belgique) en 1844 et décédé en 1915.
 À la fin de ses études à l'Université catholique de Louvain, il est promu docteur en 1867 et dès l'année suivante - à peine âgé de 24 ans - il est appelé à succéder à Louis-Antoine Van Biervliet comme professeur de physiologie, matière qu'il enseigna durant 47 ans.
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1844 : naissance d’Ernest Nicolas Masoin à Virton, capitale de la Gaume, province du Luxembourg belge.
 1856 : termine son école primaire au collège de Virton, où son père est enseignant. Entre la même année au petit séminaire de Bastogne, où il entame ses études secondaires.
@@ -561,10 +575,12 @@
           <t>Études historico-médicales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest Masoin consacra maintes notices à des cas historiques compliqués : il étudia le caractère de Chateaubriand ainsi que l’hérédité des caractères acquis, spécialement celui des Habsbourg. Ces écrits peuvent être retrouvés dans les Bulletins de l’Académie de Médecine. (XIII, 154-172 en 1879 et XIV, 772-791 en 1880).
-Il se fit critique historique à propos de la mère de Charles Quint, confirmant scientifiquement l’infirmité obsessionnelle de la malheureuse reine, Jeanne d’Aragon.[1] 
+Il se fit critique historique à propos de la mère de Charles Quint, confirmant scientifiquement l’infirmité obsessionnelle de la malheureuse reine, Jeanne d’Aragon. 
 Il écrivit et consacra en outre de nombreuses notices célébrant les médecins d’autrefois, et plus particulièrement Juste Lipse et André Vésale. 
 Il étudia déjà les méfaits du tabac et de l’alcool !
 Il fut fait Commandeur de l’Ordre de Léopold, la plus haute décoration belge, créée à la demande de Léopold Ier.
@@ -596,9 +612,11 @@
           <t>Défenseur du latin comme langue scientifique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est fort attaché à la langue latine comme instrument de communication scientifique avec les savants du monde entier. C'est ainsi qu'il écrit dans sa biographie[2] du Docteur Pierre Craninx: « Il avait composé à cette occasion une dissertation intitulée : Specimen inaugurabile physiologico-medicum de pubertate in sexu muliebri, utilisant, comme vous l’entendez, une langue ancienne et fixée qui rattachait si bien les savants de l’époque à leurs devanciers et facilitait singulièrement les relations scientifiques dans le monde entier. Par quelle étrange aberration a-t-on pu en venir à délaisser cet instrument d’universelle relation ? – Nous laissons à d’autres le soin de creuser cette question et de chercher le remède s’il en est temps encore. »
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est fort attaché à la langue latine comme instrument de communication scientifique avec les savants du monde entier. C'est ainsi qu'il écrit dans sa biographie du Docteur Pierre Craninx: « Il avait composé à cette occasion une dissertation intitulée : Specimen inaugurabile physiologico-medicum de pubertate in sexu muliebri, utilisant, comme vous l’entendez, une langue ancienne et fixée qui rattachait si bien les savants de l’époque à leurs devanciers et facilitait singulièrement les relations scientifiques dans le monde entier. Par quelle étrange aberration a-t-on pu en venir à délaisser cet instrument d’universelle relation ? – Nous laissons à d’autres le soin de creuser cette question et de chercher le remède s’il en est temps encore. »
 </t>
         </is>
       </c>
